--- a/notebooks/data/alpha trial data.xlsx
+++ b/notebooks/data/alpha trial data.xlsx
@@ -494,7 +494,7 @@
         <v>68.75737375408448</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4059811258390406</v>
+        <v>0.4059811258390413</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>61.90661445631294</v>
       </c>
       <c r="G3" t="n">
-        <v>0.412569674173596</v>
+        <v>0.4125696741735957</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>1.1218</v>
       </c>
       <c r="F4" t="n">
-        <v>58.91146932391973</v>
+        <v>58.91146932391974</v>
       </c>
       <c r="G4" t="n">
         <v>0.4218010433293824</v>
@@ -575,7 +575,7 @@
         <v>51.26006055851206</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3889861181039488</v>
+        <v>0.3889861181039485</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>48.27446879239545</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3734035821982558</v>
+        <v>0.3734035821982563</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>0.9215</v>
       </c>
       <c r="F7" t="n">
-        <v>43.50794609809137</v>
+        <v>43.50794609809133</v>
       </c>
       <c r="G7" t="n">
         <v>0.3409426994495353</v>
@@ -653,10 +653,10 @@
         <v>0.6745</v>
       </c>
       <c r="F8" t="n">
-        <v>30.71897691846496</v>
+        <v>30.71897691846493</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2357476507169372</v>
+        <v>0.2357476507169363</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>109.3454961273666</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8607713181136069</v>
+        <v>0.8607713181136072</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>97.82685536037295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8385597097518629</v>
+        <v>0.8385597097518636</v>
       </c>
     </row>
     <row r="11">
@@ -734,10 +734,10 @@
         <v>3.0727</v>
       </c>
       <c r="F11" t="n">
-        <v>127.8816253143693</v>
+        <v>127.8816253143806</v>
       </c>
       <c r="G11" t="n">
-        <v>1.316784291152708</v>
+        <v>1.31678429115285</v>
       </c>
     </row>
     <row r="12">
@@ -764,7 +764,7 @@
         <v>20.40883620451779</v>
       </c>
       <c r="G12" t="n">
-        <v>0.14104090252958</v>
+        <v>0.1410409025295796</v>
       </c>
     </row>
     <row r="13">
@@ -791,7 +791,7 @@
         <v>74.04448870643481</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8470395626334312</v>
+        <v>0.8470395626334318</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         <v>69.29466933800238</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8081347547547663</v>
+        <v>0.8081347547547656</v>
       </c>
     </row>
     <row r="15">
@@ -872,7 +872,7 @@
         <v>53.78118843904346</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7304628235533704</v>
+        <v>0.7304628235533701</v>
       </c>
     </row>
     <row r="17">
@@ -896,10 +896,10 @@
         <v>1.2662</v>
       </c>
       <c r="F17" t="n">
-        <v>44.59531607691775</v>
+        <v>44.59531607691776</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6107757216344133</v>
+        <v>0.6107757216344135</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
         <v>43.98247776930692</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6558732819765853</v>
+        <v>0.6558732819765856</v>
       </c>
     </row>
     <row r="19">
@@ -953,7 +953,7 @@
         <v>38.55170383411019</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5983289225000403</v>
+        <v>0.5983289225000408</v>
       </c>
     </row>
     <row r="20">
@@ -980,7 +980,7 @@
         <v>34.95584748361117</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5723039682370789</v>
+        <v>0.572303968237079</v>
       </c>
     </row>
     <row r="21">
@@ -1007,7 +1007,7 @@
         <v>35.71405538817705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6327285897897791</v>
+        <v>0.6327285897897792</v>
       </c>
     </row>
     <row r="22">
@@ -1034,7 +1034,7 @@
         <v>31.95107031662241</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5936967416008002</v>
+        <v>0.5936967416007999</v>
       </c>
     </row>
     <row r="23">
@@ -1061,7 +1061,7 @@
         <v>24.2265316586087</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4886805134115459</v>
+        <v>0.4886805134115453</v>
       </c>
     </row>
   </sheetData>
